--- a/策划案/镇魂街/新属性系统需求.xlsx
+++ b/策划案/镇魂街/新属性系统需求.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="169">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -542,10 +542,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>见伪代码截图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -627,6 +623,30 @@
   </si>
   <si>
     <t>防御相关的公式修改，改为更易调平的乘法公式。使不同卡牌的属性比例可以区分度更大。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害计算公式见下面的伪代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍战斗力 = SUM(单卡战斗力)+先攻值*100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单卡战斗力 = 面板属性 * 各属性对应的系数 + 技能战斗力（配在表中）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1228,6 +1248,21 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="4" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1272,21 +1307,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1445,19 +1465,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>179200</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>208751</xdr:rowOff>
+      <xdr:colOff>426821</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>189737</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1470,8 +1490,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="600075" y="19173825"/>
-          <a:ext cx="14200000" cy="6390476"/>
+          <a:off x="619125" y="20069175"/>
+          <a:ext cx="14428571" cy="6104762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1764,12 +1784,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1778,10 +1798,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1792,26 +1812,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -1820,10 +1840,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -1832,151 +1852,147 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -1989,12 +2005,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -2020,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z138"/>
+  <dimension ref="A1:Z141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="O98" sqref="O98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2132,40 +2152,40 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="C12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
@@ -2183,7 +2203,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>42</v>
@@ -2408,153 +2428,176 @@
       <c r="Z62" s="16"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B63" s="17" t="s">
+        <v>163</v>
+      </c>
       <c r="C63" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A95" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="17"/>
+      <c r="C96" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B97" s="17"/>
+      <c r="C97" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A99" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B99" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="16"/>
-      <c r="P95" s="16"/>
-      <c r="Q95" s="16"/>
-      <c r="R95" s="16"/>
-      <c r="S95" s="16"/>
-      <c r="T95" s="16"/>
-      <c r="U95" s="16"/>
-      <c r="V95" s="16"/>
-      <c r="W95" s="16"/>
-      <c r="X95" s="16"/>
-      <c r="Y95" s="16"/>
-      <c r="Z95" s="16"/>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A128" s="16" t="s">
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="16"/>
+      <c r="S99" s="16"/>
+      <c r="T99" s="16"/>
+      <c r="U99" s="16"/>
+      <c r="V99" s="16"/>
+      <c r="W99" s="16"/>
+      <c r="X99" s="16"/>
+      <c r="Y99" s="16"/>
+      <c r="Z99" s="16"/>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A131" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B131" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="16"/>
-      <c r="L128" s="16"/>
-      <c r="M128" s="16"/>
-      <c r="N128" s="16"/>
-      <c r="O128" s="16"/>
-      <c r="P128" s="16"/>
-      <c r="Q128" s="16"/>
-      <c r="R128" s="16"/>
-      <c r="S128" s="16"/>
-      <c r="T128" s="16"/>
-      <c r="U128" s="16"/>
-      <c r="V128" s="16"/>
-      <c r="W128" s="16"/>
-      <c r="X128" s="16"/>
-      <c r="Y128" s="16"/>
-      <c r="Z128" s="16"/>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B129" s="17" t="s">
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+      <c r="L131" s="16"/>
+      <c r="M131" s="16"/>
+      <c r="N131" s="16"/>
+      <c r="O131" s="16"/>
+      <c r="P131" s="16"/>
+      <c r="Q131" s="16"/>
+      <c r="R131" s="16"/>
+      <c r="S131" s="16"/>
+      <c r="T131" s="16"/>
+      <c r="U131" s="16"/>
+      <c r="V131" s="16"/>
+      <c r="W131" s="16"/>
+      <c r="X131" s="16"/>
+      <c r="Y131" s="16"/>
+      <c r="Z131" s="16"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B132" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C132" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C133" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B134" s="17" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C130" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B131" s="17" t="s">
+      <c r="C134" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C131" s="12" t="s">
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C135" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C132" s="12" t="s">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B136" s="17" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B133" s="17" t="s">
+      <c r="C136" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C133" s="12" t="s">
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C137" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C134" s="12" t="s">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A139" s="16" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A136" s="16" t="s">
+      <c r="B139" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="16"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="16"/>
+      <c r="N139" s="16"/>
+      <c r="O139" s="16"/>
+      <c r="P139" s="16"/>
+      <c r="Q139" s="16"/>
+      <c r="R139" s="16"/>
+      <c r="S139" s="16"/>
+      <c r="T139" s="16"/>
+      <c r="U139" s="16"/>
+      <c r="V139" s="16"/>
+      <c r="W139" s="16"/>
+      <c r="X139" s="16"/>
+      <c r="Y139" s="16"/>
+      <c r="Z139" s="16"/>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B140" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="16"/>
-      <c r="L136" s="16"/>
-      <c r="M136" s="16"/>
-      <c r="N136" s="16"/>
-      <c r="O136" s="16"/>
-      <c r="P136" s="16"/>
-      <c r="Q136" s="16"/>
-      <c r="R136" s="16"/>
-      <c r="S136" s="16"/>
-      <c r="T136" s="16"/>
-      <c r="U136" s="16"/>
-      <c r="V136" s="16"/>
-      <c r="W136" s="16"/>
-      <c r="X136" s="16"/>
-      <c r="Y136" s="16"/>
-      <c r="Z136" s="16"/>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B137" s="12" t="s">
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B141" s="12" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B138" s="12" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
